--- a/买家秀数据.xlsx
+++ b/买家秀数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>*买家头像</t>
     <rPh sb="1" eb="2">
@@ -224,6 +224,26 @@
   </si>
   <si>
     <t>一看就很有食欲，已经迫不及待~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品标题</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'ti</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -641,7 +661,7 @@
     <col min="13" max="16384" width="10.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -657,8 +677,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -675,7 +701,7 @@
         <v>72206</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -692,7 +718,7 @@
         <v>72206</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -709,12 +735,12 @@
         <v>72206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -731,7 +757,7 @@
         <v>73191</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -748,7 +774,7 @@
         <v>73191</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -765,10 +791,10 @@
         <v>73191</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -785,7 +811,7 @@
         <v>81690</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -802,11 +828,11 @@
         <v>81690</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -823,7 +849,7 @@
         <v>54884</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -840,10 +866,10 @@
         <v>54884</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>

--- a/买家秀数据.xlsx
+++ b/买家秀数据.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>*买家头像</t>
     <rPh sb="1" eb="2">
@@ -243,6 +243,16 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>biao'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -661,7 +671,7 @@
     <col min="13" max="16384" width="10.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -683,8 +693,11 @@
       <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -701,7 +714,7 @@
         <v>72206</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -718,7 +731,7 @@
         <v>72206</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -735,12 +748,12 @@
         <v>72206</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -757,7 +770,7 @@
         <v>73191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -774,7 +787,7 @@
         <v>73191</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -791,10 +804,10 @@
         <v>73191</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -811,7 +824,7 @@
         <v>81690</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -828,11 +841,11 @@
         <v>81690</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -849,7 +862,7 @@
         <v>54884</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -866,10 +879,10 @@
         <v>54884</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
